--- a/backend/checkpoints/polygon-ETH-TEL-13.xlsx
+++ b/backend/checkpoints/polygon-ETH-TEL-13.xlsx
@@ -450,7 +450,7 @@
         <v>Start Block</v>
       </c>
       <c r="B6" t="str">
-        <v>78597968</v>
+        <v>78331507</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +562,10 @@
         <v>11711597711276</v>
       </c>
       <c r="F3" t="str">
-        <v>0.00022781031143911</v>
+        <v>0.000407425937190886</v>
       </c>
       <c r="G3" t="str">
-        <v>207.39</v>
+        <v>348.82</v>
       </c>
     </row>
     <row r="4">
@@ -585,10 +585,10 @@
         <v>3819312130280</v>
       </c>
       <c r="F4" t="str">
-        <v>0.0005220162606002</v>
+        <v>0.000597155998066858</v>
       </c>
       <c r="G4" t="str">
-        <v>507.05</v>
+        <v>663.51</v>
       </c>
     </row>
     <row r="5">
@@ -608,10 +608,10 @@
         <v>169696005910220</v>
       </c>
       <c r="F5" t="str">
-        <v>0.023193724791890274</v>
+        <v>0.02653226139175168</v>
       </c>
       <c r="G5" t="str">
-        <v>22528.84</v>
+        <v>29480.82</v>
       </c>
     </row>
     <row r="6">
@@ -654,10 +654,10 @@
         <v>170759449330335</v>
       </c>
       <c r="F7" t="str">
-        <v>0.015986140778041438</v>
+        <v>0.019345599171323333</v>
       </c>
       <c r="G7" t="str">
-        <v>14314.85</v>
+        <v>21310.4</v>
       </c>
     </row>
     <row r="8">
@@ -677,10 +677,10 @@
         <v>7348825093332</v>
       </c>
       <c r="F8" t="str">
-        <v>0.000687981560938068</v>
+        <v>0.000832559633995657</v>
       </c>
       <c r="G8" t="str">
-        <v>616.05</v>
+        <v>917.11</v>
       </c>
     </row>
     <row r="9">
@@ -700,10 +700,10 @@
         <v>45564506313311</v>
       </c>
       <c r="F9" t="str">
-        <v>0.005117635395536</v>
+        <v>0.005315251875294274</v>
       </c>
       <c r="G9" t="str">
-        <v>5602.26</v>
+        <v>5728.9</v>
       </c>
     </row>
     <row r="10">
@@ -731,321 +731,321 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>55951</v>
+        <v>54866</v>
       </c>
       <c r="B11" t="str">
-        <v>0x8F1c51E98Af7C7dbB24654ACB05781E0e96e008F</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
       <c r="C11">
-        <v>-231300</v>
+        <v>-887220</v>
       </c>
       <c r="D11">
-        <v>-230280</v>
+        <v>887220</v>
       </c>
       <c r="E11" t="str">
-        <v>201231094969306</v>
+        <v>191086</v>
       </c>
       <c r="F11" t="str">
-        <v>0.003041530442927873</v>
+        <v>0.000000000029876622</v>
       </c>
       <c r="G11" t="str">
-        <v>3004.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>55939</v>
+        <v>55849</v>
       </c>
       <c r="B12" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x19BeC353c5eFdEBEEdfA88698BcF89225F9325EE</v>
       </c>
       <c r="C12">
-        <v>-228600</v>
+        <v>-887220</v>
       </c>
       <c r="D12">
-        <v>-228120</v>
+        <v>887220</v>
       </c>
       <c r="E12" t="str">
         <v>0</v>
       </c>
       <c r="F12" t="str">
-        <v>0.022404605480948393</v>
+        <v>0.000008649558121197</v>
       </c>
       <c r="G12" t="str">
-        <v>49934.78</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>56021</v>
+        <v>55850</v>
       </c>
       <c r="B13" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xD98b537374623B2cFc2f083fcE50b525A697A6b7</v>
       </c>
       <c r="C13">
-        <v>-228960</v>
+        <v>-238080</v>
       </c>
       <c r="D13">
-        <v>-228540</v>
+        <v>-226200</v>
       </c>
       <c r="E13" t="str">
-        <v>0</v>
+        <v>1422804341952841</v>
       </c>
       <c r="F13" t="str">
-        <v>0.005551966949903377</v>
+        <v>0.222457897624203893</v>
       </c>
       <c r="G13" t="str">
-        <v>0</v>
+        <v>209978.44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>56039</v>
+        <v>55863</v>
       </c>
       <c r="B14" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
       <c r="C14">
-        <v>-229320</v>
+        <v>-887220</v>
       </c>
       <c r="D14">
-        <v>-228960</v>
+        <v>887220</v>
       </c>
       <c r="E14" t="str">
         <v>0</v>
       </c>
       <c r="F14" t="str">
-        <v>0.003297635598000724</v>
+        <v>0.000191553766884379</v>
       </c>
       <c r="G14" t="str">
-        <v>2146.43</v>
+        <v>83.88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>56046</v>
+        <v>55888</v>
       </c>
       <c r="B15" t="str">
-        <v>0x40f81795f44b96BF88E16E055f2283B9cAEd9466</v>
+        <v>0xf31cac93488D5C687C7CbCd58e3ea11609D7dD08</v>
       </c>
       <c r="C15">
-        <v>-230760</v>
+        <v>-233820</v>
       </c>
       <c r="D15">
-        <v>-228360</v>
+        <v>-226920</v>
       </c>
       <c r="E15" t="str">
-        <v>54888064078558</v>
+        <v>20060838600389</v>
       </c>
       <c r="F15" t="str">
-        <v>0.006568170683976207</v>
+        <v>0.002942232380941114</v>
       </c>
       <c r="G15" t="str">
-        <v>7103.4</v>
+        <v>2899.54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>56062</v>
+        <v>55891</v>
       </c>
       <c r="B16" t="str">
-        <v>0xBa2ACC7b677dd133F8B6e5cEde8ea7Fd9C1c6795</v>
+        <v>0x248784Af80094fe92F915674b2f4409366443562</v>
       </c>
       <c r="C16">
-        <v>-245880</v>
+        <v>-887220</v>
       </c>
       <c r="D16">
-        <v>-227040</v>
+        <v>-228300</v>
       </c>
       <c r="E16" t="str">
-        <v>119141851683898</v>
+        <v>28379605126695</v>
       </c>
       <c r="F16" t="str">
-        <v>0.013856556635985002</v>
+        <v>0.004057452157449011</v>
       </c>
       <c r="G16" t="str">
-        <v>15307.63</v>
+        <v>3998.26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>56098</v>
+        <v>55918</v>
       </c>
       <c r="B17" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0AB4F882E219A33fcE9252b6213aD1146d4354d9</v>
       </c>
       <c r="C17">
-        <v>-229740</v>
+        <v>-231120</v>
       </c>
       <c r="D17">
-        <v>-229440</v>
+        <v>-226920</v>
       </c>
       <c r="E17" t="str">
-        <v>0</v>
+        <v>19150567999584</v>
       </c>
       <c r="F17" t="str">
-        <v>0.000169761634434332</v>
+        <v>0.0027005202888561</v>
       </c>
       <c r="G17" t="str">
-        <v>0</v>
+        <v>2595.65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>56107</v>
+        <v>55939</v>
       </c>
       <c r="B18" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
       <c r="C18">
-        <v>-230700</v>
+        <v>-228600</v>
       </c>
       <c r="D18">
-        <v>-229980</v>
+        <v>-228120</v>
       </c>
       <c r="E18" t="str">
         <v>0</v>
       </c>
       <c r="F18" t="str">
-        <v>0.017085453989273664</v>
+        <v>0.022452134044151172</v>
       </c>
       <c r="G18" t="str">
-        <v>18153.11</v>
+        <v>50181.65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>56150</v>
+        <v>55951</v>
       </c>
       <c r="B19" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x8F1c51E98Af7C7dbB24654ACB05781E0e96e008F</v>
       </c>
       <c r="C19">
-        <v>-230520</v>
+        <v>-231300</v>
       </c>
       <c r="D19">
-        <v>-230220</v>
+        <v>-230280</v>
       </c>
       <c r="E19" t="str">
-        <v>0</v>
+        <v>201231094969306</v>
       </c>
       <c r="F19" t="str">
-        <v>0.006793658688110907</v>
+        <v>0.003041530442927873</v>
       </c>
       <c r="G19" t="str">
-        <v>19332.23</v>
+        <v>3004.24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>56184</v>
+        <v>56021</v>
       </c>
       <c r="B20" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
       <c r="C20">
-        <v>-231420</v>
+        <v>-228960</v>
       </c>
       <c r="D20">
-        <v>-230580</v>
+        <v>-228540</v>
       </c>
       <c r="E20" t="str">
         <v>0</v>
       </c>
       <c r="F20" t="str">
-        <v>0.008026716608016798</v>
+        <v>0.005551966949903377</v>
       </c>
       <c r="G20" t="str">
-        <v>4018.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>55863</v>
+        <v>56039</v>
       </c>
       <c r="B21" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
       <c r="C21">
-        <v>-887220</v>
+        <v>-229320</v>
       </c>
       <c r="D21">
-        <v>887220</v>
+        <v>-228960</v>
       </c>
       <c r="E21" t="str">
         <v>0</v>
       </c>
       <c r="F21" t="str">
-        <v>0</v>
+        <v>0.003297635598000724</v>
       </c>
       <c r="G21" t="str">
-        <v>0</v>
+        <v>2146.43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>56187</v>
+        <v>56046</v>
       </c>
       <c r="B22" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0x40f81795f44b96BF88E16E055f2283B9cAEd9466</v>
       </c>
       <c r="C22">
-        <v>-231120</v>
+        <v>-230760</v>
       </c>
       <c r="D22">
-        <v>-230280</v>
+        <v>-228360</v>
       </c>
       <c r="E22" t="str">
-        <v>0</v>
+        <v>54888064078558</v>
       </c>
       <c r="F22" t="str">
-        <v>0.000042253865426012</v>
+        <v>0.006568170683976207</v>
       </c>
       <c r="G22" t="str">
-        <v>956.37</v>
+        <v>7103.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>56205</v>
+        <v>56062</v>
       </c>
       <c r="B23" t="str">
-        <v>0xabF76381Ab5538598AA4cd77d01De16c3F48a54A</v>
+        <v>0xBa2ACC7b677dd133F8B6e5cEde8ea7Fd9C1c6795</v>
       </c>
       <c r="C23">
-        <v>-233820</v>
+        <v>-245880</v>
       </c>
       <c r="D23">
         <v>-227040</v>
       </c>
       <c r="E23" t="str">
-        <v>24608258344881</v>
+        <v>119141851683898</v>
       </c>
       <c r="F23" t="str">
-        <v>0.002148150569342694</v>
+        <v>0.013856556635985002</v>
       </c>
       <c r="G23" t="str">
-        <v>2799.43</v>
+        <v>15307.63</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>56206</v>
+        <v>56098</v>
       </c>
       <c r="B24" t="str">
-        <v>0x93Cf0a22a26895650A8AaE960Bf85a01ec6A551C</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
       <c r="C24">
-        <v>-231120</v>
+        <v>-229740</v>
       </c>
       <c r="D24">
-        <v>-230160</v>
+        <v>-229440</v>
       </c>
       <c r="E24" t="str">
         <v>0</v>
       </c>
       <c r="F24" t="str">
-        <v>0</v>
+        <v>0.000169761634434332</v>
       </c>
       <c r="G24" t="str">
         <v>0</v>
@@ -1053,290 +1053,382 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>55849</v>
+        <v>56107</v>
       </c>
       <c r="B25" t="str">
-        <v>0x19BeC353c5eFdEBEEdfA88698BcF89225F9325EE</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
       <c r="C25">
-        <v>-887220</v>
+        <v>-230700</v>
       </c>
       <c r="D25">
-        <v>887220</v>
+        <v>-229980</v>
       </c>
       <c r="E25" t="str">
         <v>0</v>
       </c>
       <c r="F25" t="str">
-        <v>0</v>
+        <v>0.017085453989273664</v>
       </c>
       <c r="G25" t="str">
-        <v>0</v>
+        <v>18153.11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>56214</v>
+        <v>56150</v>
       </c>
       <c r="B26" t="str">
-        <v>0xA2a39b6E6efa860df166D49A1ec095fD6BEdb91f</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
       <c r="C26">
-        <v>-887220</v>
+        <v>-230520</v>
       </c>
       <c r="D26">
-        <v>887220</v>
+        <v>-230220</v>
       </c>
       <c r="E26" t="str">
         <v>0</v>
       </c>
       <c r="F26" t="str">
-        <v>0.000006606859062589</v>
+        <v>0.006793658688110907</v>
       </c>
       <c r="G26" t="str">
-        <v>7.86</v>
+        <v>19332.23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>56217</v>
+        <v>56184</v>
       </c>
       <c r="B27" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
       <c r="C27">
-        <v>-230820</v>
+        <v>-231420</v>
       </c>
       <c r="D27">
-        <v>-229920</v>
+        <v>-230580</v>
       </c>
       <c r="E27" t="str">
         <v>0</v>
       </c>
       <c r="F27" t="str">
-        <v>0.013134635326740001</v>
+        <v>0.008026716608016798</v>
       </c>
       <c r="G27" t="str">
-        <v>7888.8</v>
+        <v>4018.88</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>56413</v>
+        <v>56187</v>
       </c>
       <c r="B28" t="str">
         <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
       <c r="C28">
-        <v>-231300</v>
+        <v>-231120</v>
       </c>
       <c r="D28">
-        <v>-228360</v>
+        <v>-230280</v>
       </c>
       <c r="E28" t="str">
-        <v>51504218144800</v>
+        <v>0</v>
       </c>
       <c r="F28" t="str">
-        <v>0.004117956710943026</v>
+        <v>0.000042253865426012</v>
       </c>
       <c r="G28" t="str">
-        <v>4849.25</v>
+        <v>956.37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>56491</v>
+        <v>56205</v>
       </c>
       <c r="B29" t="str">
-        <v>0x93Cf0a22a26895650A8AaE960Bf85a01ec6A551C</v>
+        <v>0xabF76381Ab5538598AA4cd77d01De16c3F48a54A</v>
       </c>
       <c r="C29">
-        <v>-230760</v>
+        <v>-233820</v>
       </c>
       <c r="D29">
-        <v>-228840</v>
+        <v>-227040</v>
       </c>
       <c r="E29" t="str">
-        <v>202443289054254</v>
+        <v>24608258344881</v>
       </c>
       <c r="F29" t="str">
-        <v>0.014960838497561057</v>
+        <v>0.002148150569342694</v>
       </c>
       <c r="G29" t="str">
-        <v>16807.34</v>
+        <v>2799.43</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>56501</v>
+        <v>56206</v>
       </c>
       <c r="B30" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x93Cf0a22a26895650A8AaE960Bf85a01ec6A551C</v>
       </c>
       <c r="C30">
+        <v>-231120</v>
+      </c>
+      <c r="D30">
         <v>-230160</v>
       </c>
-      <c r="D30">
-        <v>-229500</v>
-      </c>
       <c r="E30" t="str">
         <v>0</v>
       </c>
       <c r="F30" t="str">
-        <v>0.005532784935735476</v>
+        <v>0</v>
       </c>
       <c r="G30" t="str">
-        <v>6249.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>56666</v>
+        <v>56214</v>
       </c>
       <c r="B31" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xA2a39b6E6efa860df166D49A1ec095fD6BEdb91f</v>
       </c>
       <c r="C31">
-        <v>-229500</v>
+        <v>-887220</v>
       </c>
       <c r="D31">
-        <v>-229080</v>
+        <v>887220</v>
       </c>
       <c r="E31" t="str">
         <v>0</v>
       </c>
       <c r="F31" t="str">
-        <v>0.003553040226025035</v>
+        <v>0.000006606859062589</v>
       </c>
       <c r="G31" t="str">
-        <v>421.52</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>56865</v>
+        <v>56217</v>
       </c>
       <c r="B32" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
       <c r="C32">
-        <v>-229500</v>
+        <v>-230820</v>
       </c>
       <c r="D32">
-        <v>-229380</v>
+        <v>-229920</v>
       </c>
       <c r="E32" t="str">
         <v>0</v>
       </c>
       <c r="F32" t="str">
-        <v>0.00084558197232966</v>
+        <v>0.013134635326740001</v>
       </c>
       <c r="G32" t="str">
-        <v>604.37</v>
+        <v>7888.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>56941</v>
+        <v>56413</v>
       </c>
       <c r="B33" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
       <c r="C33">
-        <v>-229800</v>
+        <v>-231300</v>
       </c>
       <c r="D33">
-        <v>-229500</v>
+        <v>-228360</v>
       </c>
       <c r="E33" t="str">
-        <v>0</v>
+        <v>51504218144800</v>
       </c>
       <c r="F33" t="str">
-        <v>0.000655027014619051</v>
+        <v>0.004117956710943026</v>
       </c>
       <c r="G33" t="str">
-        <v>984.52</v>
+        <v>4849.25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>55850</v>
+        <v>56491</v>
       </c>
       <c r="B34" t="str">
-        <v>0xD98b537374623B2cFc2f083fcE50b525A697A6b7</v>
+        <v>0x93Cf0a22a26895650A8AaE960Bf85a01ec6A551C</v>
       </c>
       <c r="C34">
-        <v>-238080</v>
+        <v>-230760</v>
       </c>
       <c r="D34">
-        <v>-226200</v>
+        <v>-228840</v>
       </c>
       <c r="E34" t="str">
-        <v>1422804341952841</v>
+        <v>202443289054254</v>
       </c>
       <c r="F34" t="str">
-        <v>0.031455655337217222</v>
+        <v>0.014960838497561057</v>
       </c>
       <c r="G34" t="str">
-        <v>41736.27</v>
+        <v>16807.34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>57252</v>
+        <v>56501</v>
       </c>
       <c r="B35" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
       <c r="C35">
-        <v>-229800</v>
+        <v>-230160</v>
       </c>
       <c r="D35">
-        <v>-229380</v>
+        <v>-229500</v>
       </c>
       <c r="E35" t="str">
         <v>0</v>
       </c>
       <c r="F35" t="str">
-        <v>0</v>
+        <v>0.005532784935735476</v>
       </c>
       <c r="G35" t="str">
-        <v>0</v>
+        <v>6249.95</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
+        <v>56666</v>
+      </c>
+      <c r="B36" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+      <c r="C36">
+        <v>-229500</v>
+      </c>
+      <c r="D36">
+        <v>-229080</v>
+      </c>
+      <c r="E36" t="str">
+        <v>0</v>
+      </c>
+      <c r="F36" t="str">
+        <v>0.003553040226025035</v>
+      </c>
+      <c r="G36" t="str">
+        <v>421.52</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>56865</v>
+      </c>
+      <c r="B37" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+      <c r="C37">
+        <v>-229500</v>
+      </c>
+      <c r="D37">
+        <v>-229380</v>
+      </c>
+      <c r="E37" t="str">
+        <v>0</v>
+      </c>
+      <c r="F37" t="str">
+        <v>0.00084558197232966</v>
+      </c>
+      <c r="G37" t="str">
+        <v>604.37</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>56941</v>
+      </c>
+      <c r="B38" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+      <c r="C38">
+        <v>-229800</v>
+      </c>
+      <c r="D38">
+        <v>-229500</v>
+      </c>
+      <c r="E38" t="str">
+        <v>0</v>
+      </c>
+      <c r="F38" t="str">
+        <v>0.000655027014619051</v>
+      </c>
+      <c r="G38" t="str">
+        <v>984.52</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>57252</v>
+      </c>
+      <c r="B39" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+      <c r="C39">
+        <v>-229800</v>
+      </c>
+      <c r="D39">
+        <v>-229380</v>
+      </c>
+      <c r="E39" t="str">
+        <v>0</v>
+      </c>
+      <c r="F39" t="str">
+        <v>0</v>
+      </c>
+      <c r="G39" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
         <v>57536</v>
       </c>
-      <c r="B36" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
-      </c>
-      <c r="C36">
+      <c r="B40" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+      <c r="C40">
         <v>-229320</v>
       </c>
-      <c r="D36">
+      <c r="D40">
         <v>-229140</v>
       </c>
-      <c r="E36" t="str">
+      <c r="E40" t="str">
         <v>220836176786362</v>
       </c>
-      <c r="F36" t="str">
-        <v>0</v>
-      </c>
-      <c r="G36" t="str">
+      <c r="F40" t="str">
+        <v>0</v>
+      </c>
+      <c r="G40" t="str">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G36"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G40"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D241"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1360,7 +1452,7 @@
         <v>15863</v>
       </c>
       <c r="B2" t="str">
-        <v>78597968</v>
+        <v>78331507</v>
       </c>
       <c r="C2" t="str">
         <v>42675289859</v>
@@ -1388,7 +1480,7 @@
         <v>36440</v>
       </c>
       <c r="B4" t="str">
-        <v>78597968</v>
+        <v>78331507</v>
       </c>
       <c r="C4" t="str">
         <v>11711597711276</v>
@@ -1416,7 +1508,7 @@
         <v>38055</v>
       </c>
       <c r="B6" t="str">
-        <v>78597968</v>
+        <v>78331507</v>
       </c>
       <c r="C6" t="str">
         <v>3819312130280</v>
@@ -1444,7 +1536,7 @@
         <v>38662</v>
       </c>
       <c r="B8" t="str">
-        <v>78597968</v>
+        <v>78331507</v>
       </c>
       <c r="C8" t="str">
         <v>169696005910220</v>
@@ -1472,7 +1564,7 @@
         <v>42736</v>
       </c>
       <c r="B10" t="str">
-        <v>78597968</v>
+        <v>78331507</v>
       </c>
       <c r="C10" t="str">
         <v>671197083061</v>
@@ -1500,7 +1592,7 @@
         <v>44669</v>
       </c>
       <c r="B12" t="str">
-        <v>78597968</v>
+        <v>78331507</v>
       </c>
       <c r="C12" t="str">
         <v>170759449330335</v>
@@ -1528,7 +1620,7 @@
         <v>54724</v>
       </c>
       <c r="B14" t="str">
-        <v>78597968</v>
+        <v>78331507</v>
       </c>
       <c r="C14" t="str">
         <v>7348825093332</v>
@@ -1556,7 +1648,7 @@
         <v>55084</v>
       </c>
       <c r="B16" t="str">
-        <v>78597968</v>
+        <v>78331507</v>
       </c>
       <c r="C16" t="str">
         <v>45564506313311</v>
@@ -1584,7 +1676,7 @@
         <v>55371</v>
       </c>
       <c r="B18" t="str">
-        <v>78597968</v>
+        <v>78331507</v>
       </c>
       <c r="C18" t="str">
         <v>952037184818758</v>
@@ -1609,10 +1701,10 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>55951</v>
+        <v>54866</v>
       </c>
       <c r="B20" t="str">
-        <v>78597968</v>
+        <v>78331507</v>
       </c>
       <c r="C20" t="str">
         <v>0</v>
@@ -1623,836 +1715,836 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>55951</v>
+        <v>54866</v>
       </c>
       <c r="B21" t="str">
-        <v>78598004</v>
+        <v>78415021</v>
       </c>
       <c r="C21" t="str">
-        <v>201231094969306</v>
+        <v>191086</v>
       </c>
       <c r="D21" t="str">
-        <v>0x8F1c51E98Af7C7dbB24654ACB05781E0e96e008F</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>55951</v>
+        <v>54866</v>
       </c>
       <c r="B22" t="str">
-        <v>78598058</v>
+        <v>78415088</v>
       </c>
       <c r="C22" t="str">
-        <v>201231094969306</v>
+        <v>191086</v>
       </c>
       <c r="D22" t="str">
-        <v>0x8F1c51E98Af7C7dbB24654ACB05781E0e96e008F</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>55951</v>
+        <v>54866</v>
       </c>
       <c r="B23" t="str">
-        <v>78900356</v>
+        <v>78415102</v>
       </c>
       <c r="C23" t="str">
-        <v>201231094969306</v>
+        <v>191086</v>
       </c>
       <c r="D23" t="str">
-        <v>0x8F1c51E98Af7C7dbB24654ACB05781E0e96e008F</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>55939</v>
+        <v>54866</v>
       </c>
       <c r="B24" t="str">
-        <v>78597968</v>
+        <v>78415769</v>
       </c>
       <c r="C24" t="str">
-        <v>0</v>
+        <v>191086</v>
       </c>
       <c r="D24" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>55939</v>
+        <v>54866</v>
       </c>
       <c r="B25" t="str">
-        <v>78598999</v>
+        <v>78416942</v>
       </c>
       <c r="C25" t="str">
-        <v>410715882516975</v>
+        <v>191086</v>
       </c>
       <c r="D25" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>55939</v>
+        <v>54866</v>
       </c>
       <c r="B26" t="str">
-        <v>78599743</v>
+        <v>78417019</v>
       </c>
       <c r="C26" t="str">
-        <v>1334646179917631</v>
+        <v>191086</v>
       </c>
       <c r="D26" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>55939</v>
+        <v>54866</v>
       </c>
       <c r="B27" t="str">
-        <v>78602968</v>
+        <v>78527930</v>
       </c>
       <c r="C27" t="str">
-        <v>1368737484072737</v>
+        <v>191086</v>
       </c>
       <c r="D27" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>55939</v>
+        <v>54866</v>
       </c>
       <c r="B28" t="str">
-        <v>78608082</v>
+        <v>78527938</v>
       </c>
       <c r="C28" t="str">
-        <v>1368737484072737</v>
+        <v>191086</v>
       </c>
       <c r="D28" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>55939</v>
+        <v>54866</v>
       </c>
       <c r="B29" t="str">
-        <v>78608130</v>
+        <v>78529287</v>
       </c>
       <c r="C29" t="str">
-        <v>0</v>
+        <v>191086</v>
       </c>
       <c r="D29" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>55939</v>
+        <v>54866</v>
       </c>
       <c r="B30" t="str">
-        <v>78900356</v>
+        <v>78529447</v>
       </c>
       <c r="C30" t="str">
-        <v>0</v>
+        <v>191086</v>
       </c>
       <c r="D30" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>56021</v>
+        <v>54866</v>
       </c>
       <c r="B31" t="str">
-        <v>78597968</v>
+        <v>78531936</v>
       </c>
       <c r="C31" t="str">
-        <v>0</v>
+        <v>191086</v>
       </c>
       <c r="D31" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>56021</v>
+        <v>54866</v>
       </c>
       <c r="B32" t="str">
-        <v>78608287</v>
+        <v>78531951</v>
       </c>
       <c r="C32" t="str">
-        <v>743626501548740</v>
+        <v>191086</v>
       </c>
       <c r="D32" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>56021</v>
+        <v>54866</v>
       </c>
       <c r="B33" t="str">
-        <v>78608377</v>
+        <v>78533063</v>
       </c>
       <c r="C33" t="str">
-        <v>1429559955862494</v>
+        <v>191086</v>
       </c>
       <c r="D33" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>56021</v>
+        <v>54866</v>
       </c>
       <c r="B34" t="str">
-        <v>78608461</v>
+        <v>78533072</v>
       </c>
       <c r="C34" t="str">
-        <v>1528658921821536</v>
+        <v>191086</v>
       </c>
       <c r="D34" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>56021</v>
+        <v>54866</v>
       </c>
       <c r="B35" t="str">
-        <v>78608566</v>
+        <v>78533325</v>
       </c>
       <c r="C35" t="str">
-        <v>1539398933605776</v>
+        <v>191086</v>
       </c>
       <c r="D35" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>56021</v>
+        <v>54866</v>
       </c>
       <c r="B36" t="str">
-        <v>78610881</v>
+        <v>78533338</v>
       </c>
       <c r="C36" t="str">
-        <v>1539398933605776</v>
+        <v>191086</v>
       </c>
       <c r="D36" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>56021</v>
+        <v>54866</v>
       </c>
       <c r="B37" t="str">
-        <v>78610919</v>
+        <v>78536954</v>
       </c>
       <c r="C37" t="str">
-        <v>0</v>
+        <v>191086</v>
       </c>
       <c r="D37" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>56021</v>
+        <v>54866</v>
       </c>
       <c r="B38" t="str">
-        <v>78900356</v>
+        <v>78536968</v>
       </c>
       <c r="C38" t="str">
-        <v>0</v>
+        <v>191086</v>
       </c>
       <c r="D38" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>56039</v>
+        <v>54866</v>
       </c>
       <c r="B39" t="str">
-        <v>78597968</v>
+        <v>78537142</v>
       </c>
       <c r="C39" t="str">
-        <v>0</v>
+        <v>191086</v>
       </c>
       <c r="D39" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>56039</v>
+        <v>54866</v>
       </c>
       <c r="B40" t="str">
-        <v>78610987</v>
+        <v>78537228</v>
       </c>
       <c r="C40" t="str">
-        <v>1010752173580089</v>
+        <v>191086</v>
       </c>
       <c r="D40" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>56039</v>
+        <v>54866</v>
       </c>
       <c r="B41" t="str">
-        <v>78611082</v>
+        <v>78537342</v>
       </c>
       <c r="C41" t="str">
-        <v>1603432404073682</v>
+        <v>191086</v>
       </c>
       <c r="D41" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>56039</v>
+        <v>54866</v>
       </c>
       <c r="B42" t="str">
-        <v>78611708</v>
+        <v>78537823</v>
       </c>
       <c r="C42" t="str">
-        <v>1763683164757720</v>
+        <v>191086</v>
       </c>
       <c r="D42" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>56039</v>
+        <v>54866</v>
       </c>
       <c r="B43" t="str">
-        <v>78620309</v>
+        <v>78544456</v>
       </c>
       <c r="C43" t="str">
-        <v>0</v>
+        <v>191086</v>
       </c>
       <c r="D43" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>56039</v>
+        <v>54866</v>
       </c>
       <c r="B44" t="str">
-        <v>78900356</v>
+        <v>78544484</v>
       </c>
       <c r="C44" t="str">
-        <v>0</v>
+        <v>191086</v>
       </c>
       <c r="D44" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>56046</v>
+        <v>54866</v>
       </c>
       <c r="B45" t="str">
-        <v>78597968</v>
+        <v>78544570</v>
       </c>
       <c r="C45" t="str">
-        <v>0</v>
+        <v>191086</v>
       </c>
       <c r="D45" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>56046</v>
+        <v>54866</v>
       </c>
       <c r="B46" t="str">
-        <v>78613221</v>
+        <v>78544919</v>
       </c>
       <c r="C46" t="str">
-        <v>54888064078558</v>
+        <v>191086</v>
       </c>
       <c r="D46" t="str">
-        <v>0x40f81795f44b96BF88E16E055f2283B9cAEd9466</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>56046</v>
+        <v>54866</v>
       </c>
       <c r="B47" t="str">
-        <v>78613253</v>
+        <v>78617145</v>
       </c>
       <c r="C47" t="str">
-        <v>54888064078558</v>
+        <v>191086</v>
       </c>
       <c r="D47" t="str">
-        <v>0x40f81795f44b96BF88E16E055f2283B9cAEd9466</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>56046</v>
+        <v>54866</v>
       </c>
       <c r="B48" t="str">
-        <v>78720680</v>
+        <v>78900356</v>
       </c>
       <c r="C48" t="str">
-        <v>54888064078558</v>
+        <v>191086</v>
       </c>
       <c r="D48" t="str">
-        <v>0x40f81795f44b96BF88E16E055f2283B9cAEd9466</v>
+        <v>0x329e6cBdD16cAD2f51D97d2E8F09612f12D45A6d</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>56046</v>
+        <v>55849</v>
       </c>
       <c r="B49" t="str">
-        <v>78900356</v>
+        <v>78331507</v>
       </c>
       <c r="C49" t="str">
-        <v>54888064078558</v>
+        <v>0</v>
       </c>
       <c r="D49" t="str">
-        <v>0x40f81795f44b96BF88E16E055f2283B9cAEd9466</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>56062</v>
+        <v>55849</v>
       </c>
       <c r="B50" t="str">
-        <v>78597968</v>
+        <v>78585336</v>
       </c>
       <c r="C50" t="str">
-        <v>0</v>
+        <v>125228689819</v>
       </c>
       <c r="D50" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x19BeC353c5eFdEBEEdfA88698BcF89225F9325EE</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>56062</v>
+        <v>55849</v>
       </c>
       <c r="B51" t="str">
-        <v>78615602</v>
+        <v>78585387</v>
       </c>
       <c r="C51" t="str">
-        <v>119141851683898</v>
+        <v>125228689819</v>
       </c>
       <c r="D51" t="str">
-        <v>0xBa2ACC7b677dd133F8B6e5cEde8ea7Fd9C1c6795</v>
+        <v>0x19BeC353c5eFdEBEEdfA88698BcF89225F9325EE</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>56062</v>
+        <v>55849</v>
       </c>
       <c r="B52" t="str">
-        <v>78615790</v>
+        <v>78633052</v>
       </c>
       <c r="C52" t="str">
-        <v>119141851683898</v>
+        <v>125228689819</v>
       </c>
       <c r="D52" t="str">
-        <v>0xBa2ACC7b677dd133F8B6e5cEde8ea7Fd9C1c6795</v>
+        <v>0x19BeC353c5eFdEBEEdfA88698BcF89225F9325EE</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>56062</v>
+        <v>55849</v>
       </c>
       <c r="B53" t="str">
-        <v>78900356</v>
+        <v>78633185</v>
       </c>
       <c r="C53" t="str">
-        <v>119141851683898</v>
+        <v>125228689819</v>
       </c>
       <c r="D53" t="str">
-        <v>0xBa2ACC7b677dd133F8B6e5cEde8ea7Fd9C1c6795</v>
+        <v>0x19BeC353c5eFdEBEEdfA88698BcF89225F9325EE</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>56098</v>
+        <v>55849</v>
       </c>
       <c r="B54" t="str">
-        <v>78597968</v>
+        <v>78633201</v>
       </c>
       <c r="C54" t="str">
         <v>0</v>
       </c>
       <c r="D54" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x19BeC353c5eFdEBEEdfA88698BcF89225F9325EE</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>56098</v>
+        <v>55849</v>
       </c>
       <c r="B55" t="str">
-        <v>78620380</v>
+        <v>78900356</v>
       </c>
       <c r="C55" t="str">
-        <v>1721605616616452</v>
+        <v>0</v>
       </c>
       <c r="D55" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x19BeC353c5eFdEBEEdfA88698BcF89225F9325EE</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>56098</v>
+        <v>55850</v>
       </c>
       <c r="B56" t="str">
-        <v>78620679</v>
+        <v>78331507</v>
       </c>
       <c r="C56" t="str">
-        <v>2029513646720869</v>
+        <v>0</v>
       </c>
       <c r="D56" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>56098</v>
+        <v>55850</v>
       </c>
       <c r="B57" t="str">
-        <v>78621170</v>
+        <v>78585429</v>
       </c>
       <c r="C57" t="str">
-        <v>0</v>
+        <v>1422804341952841</v>
       </c>
       <c r="D57" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xD98b537374623B2cFc2f083fcE50b525A697A6b7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>56098</v>
+        <v>55850</v>
       </c>
       <c r="B58" t="str">
-        <v>78900356</v>
+        <v>78585725</v>
       </c>
       <c r="C58" t="str">
-        <v>0</v>
+        <v>1422804341952841</v>
       </c>
       <c r="D58" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xD98b537374623B2cFc2f083fcE50b525A697A6b7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>56107</v>
+        <v>55850</v>
       </c>
       <c r="B59" t="str">
-        <v>78597968</v>
+        <v>78801481</v>
       </c>
       <c r="C59" t="str">
-        <v>0</v>
+        <v>1422804341952841</v>
       </c>
       <c r="D59" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0xD98b537374623B2cFc2f083fcE50b525A697A6b7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>56107</v>
+        <v>55850</v>
       </c>
       <c r="B60" t="str">
-        <v>78621271</v>
+        <v>78900356</v>
       </c>
       <c r="C60" t="str">
-        <v>259922974421740</v>
+        <v>1422804341952841</v>
       </c>
       <c r="D60" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xD98b537374623B2cFc2f083fcE50b525A697A6b7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>56107</v>
+        <v>55863</v>
       </c>
       <c r="B61" t="str">
-        <v>78621441</v>
+        <v>78331507</v>
       </c>
       <c r="C61" t="str">
-        <v>476307271800803</v>
+        <v>0</v>
       </c>
       <c r="D61" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>56107</v>
+        <v>55863</v>
       </c>
       <c r="B62" t="str">
-        <v>78621497</v>
+        <v>78587168</v>
       </c>
       <c r="C62" t="str">
-        <v>733015301687590</v>
+        <v>2831972640983</v>
       </c>
       <c r="D62" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>56107</v>
+        <v>55863</v>
       </c>
       <c r="B63" t="str">
-        <v>78621551</v>
+        <v>78587187</v>
       </c>
       <c r="C63" t="str">
-        <v>800741044923021</v>
+        <v>2831972640983</v>
       </c>
       <c r="D63" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>56107</v>
+        <v>55863</v>
       </c>
       <c r="B64" t="str">
-        <v>78621677</v>
+        <v>78630828</v>
       </c>
       <c r="C64" t="str">
-        <v>840168833733153</v>
+        <v>2831972640983</v>
       </c>
       <c r="D64" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>56107</v>
+        <v>55863</v>
       </c>
       <c r="B65" t="str">
-        <v>78621715</v>
+        <v>78630828</v>
       </c>
       <c r="C65" t="str">
-        <v>854241738038945</v>
+        <v>0</v>
       </c>
       <c r="D65" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>56107</v>
+        <v>55863</v>
       </c>
       <c r="B66" t="str">
-        <v>78626745</v>
+        <v>78900356</v>
       </c>
       <c r="C66" t="str">
-        <v>854241738038945</v>
+        <v>0</v>
       </c>
       <c r="D66" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>56107</v>
+        <v>55888</v>
       </c>
       <c r="B67" t="str">
-        <v>78626785</v>
+        <v>78331507</v>
       </c>
       <c r="C67" t="str">
-        <v>640681303529209</v>
+        <v>0</v>
       </c>
       <c r="D67" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>56107</v>
+        <v>55888</v>
       </c>
       <c r="B68" t="str">
-        <v>78632902</v>
+        <v>78589991</v>
       </c>
       <c r="C68" t="str">
-        <v>640681303529209</v>
+        <v>16263945609931</v>
       </c>
       <c r="D68" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xf31cac93488D5C687C7CbCd58e3ea11609D7dD08</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>56107</v>
+        <v>55888</v>
       </c>
       <c r="B69" t="str">
-        <v>78633028</v>
+        <v>78590120</v>
       </c>
       <c r="C69" t="str">
-        <v>831474559678069</v>
+        <v>16263945609931</v>
       </c>
       <c r="D69" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xf31cac93488D5C687C7CbCd58e3ea11609D7dD08</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>56107</v>
+        <v>55888</v>
       </c>
       <c r="B70" t="str">
-        <v>78633058</v>
+        <v>78590793</v>
       </c>
       <c r="C70" t="str">
-        <v>845532346170894</v>
+        <v>20060838600389</v>
       </c>
       <c r="D70" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xf31cac93488D5C687C7CbCd58e3ea11609D7dD08</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>56107</v>
+        <v>55888</v>
       </c>
       <c r="B71" t="str">
-        <v>78639355</v>
+        <v>78900356</v>
       </c>
       <c r="C71" t="str">
-        <v>845532346170894</v>
+        <v>20060838600389</v>
       </c>
       <c r="D71" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xf31cac93488D5C687C7CbCd58e3ea11609D7dD08</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>56107</v>
+        <v>55891</v>
       </c>
       <c r="B72" t="str">
-        <v>78654777</v>
+        <v>78331507</v>
       </c>
       <c r="C72" t="str">
-        <v>845532346170894</v>
+        <v>0</v>
       </c>
       <c r="D72" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>56107</v>
+        <v>55891</v>
       </c>
       <c r="B73" t="str">
-        <v>78682408</v>
+        <v>78590265</v>
       </c>
       <c r="C73" t="str">
-        <v>845532346170894</v>
+        <v>28379605126695</v>
       </c>
       <c r="D73" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x248784Af80094fe92F915674b2f4409366443562</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>56107</v>
+        <v>55891</v>
       </c>
       <c r="B74" t="str">
-        <v>78682480</v>
+        <v>78590281</v>
       </c>
       <c r="C74" t="str">
-        <v>25365970385127</v>
+        <v>28379605126695</v>
       </c>
       <c r="D74" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x248784Af80094fe92F915674b2f4409366443562</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>56107</v>
+        <v>55891</v>
       </c>
       <c r="B75" t="str">
-        <v>78719357</v>
+        <v>78900356</v>
       </c>
       <c r="C75" t="str">
-        <v>40137899836830</v>
+        <v>28379605126695</v>
       </c>
       <c r="D75" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x248784Af80094fe92F915674b2f4409366443562</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>56107</v>
+        <v>55918</v>
       </c>
       <c r="B76" t="str">
-        <v>78719457</v>
+        <v>78331507</v>
       </c>
       <c r="C76" t="str">
-        <v>52167188313302</v>
+        <v>0</v>
       </c>
       <c r="D76" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>56107</v>
+        <v>55918</v>
       </c>
       <c r="B77" t="str">
-        <v>78720104</v>
+        <v>78594746</v>
       </c>
       <c r="C77" t="str">
-        <v>59100501143621</v>
+        <v>19150567999584</v>
       </c>
       <c r="D77" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0AB4F882E219A33fcE9252b6213aD1146d4354d9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>56107</v>
+        <v>55918</v>
       </c>
       <c r="B78" t="str">
-        <v>78732735</v>
+        <v>78626695</v>
       </c>
       <c r="C78" t="str">
-        <v>0</v>
+        <v>19150567999584</v>
       </c>
       <c r="D78" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0AB4F882E219A33fcE9252b6213aD1146d4354d9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>56107</v>
+        <v>55918</v>
       </c>
       <c r="B79" t="str">
         <v>78900356</v>
       </c>
       <c r="C79" t="str">
-        <v>0</v>
+        <v>19150567999584</v>
       </c>
       <c r="D79" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0AB4F882E219A33fcE9252b6213aD1146d4354d9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>56150</v>
+        <v>55939</v>
       </c>
       <c r="B80" t="str">
-        <v>78597968</v>
+        <v>78331507</v>
       </c>
       <c r="C80" t="str">
         <v>0</v>
@@ -2463,13 +2555,13 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>56150</v>
+        <v>55939</v>
       </c>
       <c r="B81" t="str">
-        <v>78626820</v>
+        <v>78596711</v>
       </c>
       <c r="C81" t="str">
-        <v>425216877744374</v>
+        <v>296548300156411</v>
       </c>
       <c r="D81" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -2477,13 +2569,13 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>56150</v>
+        <v>55939</v>
       </c>
       <c r="B82" t="str">
-        <v>78626876</v>
+        <v>78596743</v>
       </c>
       <c r="C82" t="str">
-        <v>507065080471679</v>
+        <v>1266131711855687</v>
       </c>
       <c r="D82" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -2491,13 +2583,13 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>56150</v>
+        <v>55939</v>
       </c>
       <c r="B83" t="str">
-        <v>78630668</v>
+        <v>78597100</v>
       </c>
       <c r="C83" t="str">
-        <v>0</v>
+        <v>316532927963922</v>
       </c>
       <c r="D83" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -2505,13 +2597,13 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>56150</v>
+        <v>55939</v>
       </c>
       <c r="B84" t="str">
-        <v>78900356</v>
+        <v>78598999</v>
       </c>
       <c r="C84" t="str">
-        <v>0</v>
+        <v>410715882516975</v>
       </c>
       <c r="D84" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -2519,27 +2611,27 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>56184</v>
+        <v>55939</v>
       </c>
       <c r="B85" t="str">
-        <v>78597968</v>
+        <v>78599743</v>
       </c>
       <c r="C85" t="str">
-        <v>0</v>
+        <v>1334646179917631</v>
       </c>
       <c r="D85" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>56184</v>
+        <v>55939</v>
       </c>
       <c r="B86" t="str">
-        <v>78630782</v>
+        <v>78602968</v>
       </c>
       <c r="C86" t="str">
-        <v>100198498262366</v>
+        <v>1368737484072737</v>
       </c>
       <c r="D86" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -2547,13 +2639,13 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>56184</v>
+        <v>55939</v>
       </c>
       <c r="B87" t="str">
-        <v>78630841</v>
+        <v>78608082</v>
       </c>
       <c r="C87" t="str">
-        <v>166295173079457</v>
+        <v>1368737484072737</v>
       </c>
       <c r="D87" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -2561,13 +2653,13 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>56184</v>
+        <v>55939</v>
       </c>
       <c r="B88" t="str">
-        <v>78630899</v>
+        <v>78608130</v>
       </c>
       <c r="C88" t="str">
-        <v>178947214767757</v>
+        <v>0</v>
       </c>
       <c r="D88" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -2575,13 +2667,13 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>56184</v>
+        <v>55939</v>
       </c>
       <c r="B89" t="str">
-        <v>78630966</v>
+        <v>78900356</v>
       </c>
       <c r="C89" t="str">
-        <v>181476478530831</v>
+        <v>0</v>
       </c>
       <c r="D89" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -2589,629 +2681,629 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>56184</v>
+        <v>55951</v>
       </c>
       <c r="B90" t="str">
-        <v>78632972</v>
+        <v>78331507</v>
       </c>
       <c r="C90" t="str">
         <v>0</v>
       </c>
       <c r="D90" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>56184</v>
+        <v>55951</v>
       </c>
       <c r="B91" t="str">
-        <v>78900356</v>
+        <v>78598004</v>
       </c>
       <c r="C91" t="str">
-        <v>0</v>
+        <v>201231094969306</v>
       </c>
       <c r="D91" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x8F1c51E98Af7C7dbB24654ACB05781E0e96e008F</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>55863</v>
+        <v>55951</v>
       </c>
       <c r="B92" t="str">
-        <v>78597968</v>
+        <v>78598058</v>
       </c>
       <c r="C92" t="str">
-        <v>0</v>
+        <v>201231094969306</v>
       </c>
       <c r="D92" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x8F1c51E98Af7C7dbB24654ACB05781E0e96e008F</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>55863</v>
+        <v>55951</v>
       </c>
       <c r="B93" t="str">
-        <v>78630828</v>
+        <v>78900356</v>
       </c>
       <c r="C93" t="str">
-        <v>0</v>
+        <v>201231094969306</v>
       </c>
       <c r="D93" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0x8F1c51E98Af7C7dbB24654ACB05781E0e96e008F</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>55863</v>
+        <v>56021</v>
       </c>
       <c r="B94" t="str">
-        <v>78900356</v>
+        <v>78331507</v>
       </c>
       <c r="C94" t="str">
         <v>0</v>
       </c>
       <c r="D94" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>56187</v>
+        <v>56021</v>
       </c>
       <c r="B95" t="str">
-        <v>78597968</v>
+        <v>78608287</v>
       </c>
       <c r="C95" t="str">
-        <v>0</v>
+        <v>743626501548740</v>
       </c>
       <c r="D95" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>56187</v>
+        <v>56021</v>
       </c>
       <c r="B96" t="str">
-        <v>78630874</v>
+        <v>78608377</v>
       </c>
       <c r="C96" t="str">
-        <v>169886967388133</v>
+        <v>1429559955862494</v>
       </c>
       <c r="D96" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>56187</v>
+        <v>56021</v>
       </c>
       <c r="B97" t="str">
-        <v>78630906</v>
+        <v>78608461</v>
       </c>
       <c r="C97" t="str">
-        <v>169886967388133</v>
+        <v>1528658921821536</v>
       </c>
       <c r="D97" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>56187</v>
+        <v>56021</v>
       </c>
       <c r="B98" t="str">
-        <v>78634972</v>
+        <v>78608566</v>
       </c>
       <c r="C98" t="str">
-        <v>169886967388133</v>
+        <v>1539398933605776</v>
       </c>
       <c r="D98" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>56187</v>
+        <v>56021</v>
       </c>
       <c r="B99" t="str">
-        <v>78634972</v>
+        <v>78610881</v>
       </c>
       <c r="C99" t="str">
-        <v>0</v>
+        <v>1539398933605776</v>
       </c>
       <c r="D99" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>56187</v>
+        <v>56021</v>
       </c>
       <c r="B100" t="str">
-        <v>78900356</v>
+        <v>78610919</v>
       </c>
       <c r="C100" t="str">
         <v>0</v>
       </c>
       <c r="D100" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>56205</v>
+        <v>56021</v>
       </c>
       <c r="B101" t="str">
-        <v>78597968</v>
+        <v>78900356</v>
       </c>
       <c r="C101" t="str">
         <v>0</v>
       </c>
       <c r="D101" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>56205</v>
+        <v>56039</v>
       </c>
       <c r="B102" t="str">
-        <v>78632732</v>
+        <v>78331507</v>
       </c>
       <c r="C102" t="str">
-        <v>24608258344881</v>
+        <v>0</v>
       </c>
       <c r="D102" t="str">
-        <v>0xabF76381Ab5538598AA4cd77d01De16c3F48a54A</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>56205</v>
+        <v>56039</v>
       </c>
       <c r="B103" t="str">
-        <v>78633136</v>
+        <v>78610987</v>
       </c>
       <c r="C103" t="str">
-        <v>24608258344881</v>
+        <v>1010752173580089</v>
       </c>
       <c r="D103" t="str">
-        <v>0xabF76381Ab5538598AA4cd77d01De16c3F48a54A</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>56205</v>
+        <v>56039</v>
       </c>
       <c r="B104" t="str">
-        <v>78900356</v>
+        <v>78611082</v>
       </c>
       <c r="C104" t="str">
-        <v>24608258344881</v>
+        <v>1603432404073682</v>
       </c>
       <c r="D104" t="str">
-        <v>0xabF76381Ab5538598AA4cd77d01De16c3F48a54A</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>56206</v>
+        <v>56039</v>
       </c>
       <c r="B105" t="str">
-        <v>78597968</v>
+        <v>78611708</v>
       </c>
       <c r="C105" t="str">
-        <v>0</v>
+        <v>1763683164757720</v>
       </c>
       <c r="D105" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>56206</v>
+        <v>56039</v>
       </c>
       <c r="B106" t="str">
-        <v>78633068</v>
+        <v>78620309</v>
       </c>
       <c r="C106" t="str">
-        <v>415130394425394</v>
+        <v>0</v>
       </c>
       <c r="D106" t="str">
-        <v>0x93Cf0a22a26895650A8AaE960Bf85a01ec6A551C</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>56206</v>
+        <v>56039</v>
       </c>
       <c r="B107" t="str">
-        <v>78633088</v>
+        <v>78900356</v>
       </c>
       <c r="C107" t="str">
-        <v>415130394425394</v>
+        <v>0</v>
       </c>
       <c r="D107" t="str">
-        <v>0x93Cf0a22a26895650A8AaE960Bf85a01ec6A551C</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>56206</v>
+        <v>56046</v>
       </c>
       <c r="B108" t="str">
-        <v>78676519</v>
+        <v>78331507</v>
       </c>
       <c r="C108" t="str">
-        <v>415130394425394</v>
+        <v>0</v>
       </c>
       <c r="D108" t="str">
-        <v>0x93Cf0a22a26895650A8AaE960Bf85a01ec6A551C</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>56206</v>
+        <v>56046</v>
       </c>
       <c r="B109" t="str">
-        <v>78676519</v>
+        <v>78613221</v>
       </c>
       <c r="C109" t="str">
-        <v>0</v>
+        <v>54888064078558</v>
       </c>
       <c r="D109" t="str">
-        <v>0x93Cf0a22a26895650A8AaE960Bf85a01ec6A551C</v>
+        <v>0x40f81795f44b96BF88E16E055f2283B9cAEd9466</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>56206</v>
+        <v>56046</v>
       </c>
       <c r="B110" t="str">
-        <v>78900356</v>
+        <v>78613253</v>
       </c>
       <c r="C110" t="str">
-        <v>0</v>
+        <v>54888064078558</v>
       </c>
       <c r="D110" t="str">
-        <v>0x93Cf0a22a26895650A8AaE960Bf85a01ec6A551C</v>
+        <v>0x40f81795f44b96BF88E16E055f2283B9cAEd9466</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>55849</v>
+        <v>56046</v>
       </c>
       <c r="B111" t="str">
-        <v>78597968</v>
+        <v>78720680</v>
       </c>
       <c r="C111" t="str">
-        <v>0</v>
+        <v>54888064078558</v>
       </c>
       <c r="D111" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x40f81795f44b96BF88E16E055f2283B9cAEd9466</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>55849</v>
+        <v>56046</v>
       </c>
       <c r="B112" t="str">
-        <v>78633185</v>
+        <v>78900356</v>
       </c>
       <c r="C112" t="str">
-        <v>125228689819</v>
+        <v>54888064078558</v>
       </c>
       <c r="D112" t="str">
-        <v>0x19BeC353c5eFdEBEEdfA88698BcF89225F9325EE</v>
+        <v>0x40f81795f44b96BF88E16E055f2283B9cAEd9466</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>55849</v>
+        <v>56062</v>
       </c>
       <c r="B113" t="str">
-        <v>78633201</v>
+        <v>78331507</v>
       </c>
       <c r="C113" t="str">
         <v>0</v>
       </c>
       <c r="D113" t="str">
-        <v>0x19BeC353c5eFdEBEEdfA88698BcF89225F9325EE</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>55849</v>
+        <v>56062</v>
       </c>
       <c r="B114" t="str">
-        <v>78900356</v>
+        <v>78615602</v>
       </c>
       <c r="C114" t="str">
-        <v>0</v>
+        <v>119141851683898</v>
       </c>
       <c r="D114" t="str">
-        <v>0x19BeC353c5eFdEBEEdfA88698BcF89225F9325EE</v>
+        <v>0xBa2ACC7b677dd133F8B6e5cEde8ea7Fd9C1c6795</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>56214</v>
+        <v>56062</v>
       </c>
       <c r="B115" t="str">
-        <v>78597968</v>
+        <v>78615790</v>
       </c>
       <c r="C115" t="str">
-        <v>0</v>
+        <v>119141851683898</v>
       </c>
       <c r="D115" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0xBa2ACC7b677dd133F8B6e5cEde8ea7Fd9C1c6795</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>56214</v>
+        <v>56062</v>
       </c>
       <c r="B116" t="str">
-        <v>78634991</v>
+        <v>78900356</v>
       </c>
       <c r="C116" t="str">
-        <v>152246716182</v>
+        <v>119141851683898</v>
       </c>
       <c r="D116" t="str">
-        <v>0xA2a39b6E6efa860df166D49A1ec095fD6BEdb91f</v>
+        <v>0xBa2ACC7b677dd133F8B6e5cEde8ea7Fd9C1c6795</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>56214</v>
+        <v>56098</v>
       </c>
       <c r="B117" t="str">
-        <v>78723920</v>
+        <v>78331507</v>
       </c>
       <c r="C117" t="str">
         <v>0</v>
       </c>
       <c r="D117" t="str">
-        <v>0xA2a39b6E6efa860df166D49A1ec095fD6BEdb91f</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>56214</v>
+        <v>56098</v>
       </c>
       <c r="B118" t="str">
-        <v>78900356</v>
+        <v>78620380</v>
       </c>
       <c r="C118" t="str">
-        <v>0</v>
+        <v>1721605616616452</v>
       </c>
       <c r="D118" t="str">
-        <v>0xA2a39b6E6efa860df166D49A1ec095fD6BEdb91f</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>56217</v>
+        <v>56098</v>
       </c>
       <c r="B119" t="str">
-        <v>78597968</v>
+        <v>78620679</v>
       </c>
       <c r="C119" t="str">
-        <v>0</v>
+        <v>2029513646720869</v>
       </c>
       <c r="D119" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>56217</v>
+        <v>56098</v>
       </c>
       <c r="B120" t="str">
-        <v>78635172</v>
+        <v>78621170</v>
       </c>
       <c r="C120" t="str">
-        <v>216188104831505</v>
+        <v>0</v>
       </c>
       <c r="D120" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>56217</v>
+        <v>56098</v>
       </c>
       <c r="B121" t="str">
-        <v>78635201</v>
+        <v>78900356</v>
       </c>
       <c r="C121" t="str">
-        <v>216188104831505</v>
+        <v>0</v>
       </c>
       <c r="D121" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>56217</v>
+        <v>56107</v>
       </c>
       <c r="B122" t="str">
-        <v>78670421</v>
+        <v>78331507</v>
       </c>
       <c r="C122" t="str">
-        <v>216188104831505</v>
+        <v>0</v>
       </c>
       <c r="D122" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>56217</v>
+        <v>56107</v>
       </c>
       <c r="B123" t="str">
-        <v>78670421</v>
+        <v>78621271</v>
       </c>
       <c r="C123" t="str">
-        <v>0</v>
+        <v>259922974421740</v>
       </c>
       <c r="D123" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>56217</v>
+        <v>56107</v>
       </c>
       <c r="B124" t="str">
-        <v>78900356</v>
+        <v>78621441</v>
       </c>
       <c r="C124" t="str">
-        <v>0</v>
+        <v>476307271800803</v>
       </c>
       <c r="D124" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>56413</v>
+        <v>56107</v>
       </c>
       <c r="B125" t="str">
-        <v>78597968</v>
+        <v>78621497</v>
       </c>
       <c r="C125" t="str">
-        <v>0</v>
+        <v>733015301687590</v>
       </c>
       <c r="D125" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>56413</v>
+        <v>56107</v>
       </c>
       <c r="B126" t="str">
-        <v>78670657</v>
+        <v>78621551</v>
       </c>
       <c r="C126" t="str">
-        <v>51504218144800</v>
+        <v>800741044923021</v>
       </c>
       <c r="D126" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>56413</v>
+        <v>56107</v>
       </c>
       <c r="B127" t="str">
-        <v>78670684</v>
+        <v>78621677</v>
       </c>
       <c r="C127" t="str">
-        <v>51504218144800</v>
+        <v>840168833733153</v>
       </c>
       <c r="D127" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>56413</v>
+        <v>56107</v>
       </c>
       <c r="B128" t="str">
-        <v>78900356</v>
+        <v>78621715</v>
       </c>
       <c r="C128" t="str">
-        <v>51504218144800</v>
+        <v>854241738038945</v>
       </c>
       <c r="D128" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>56491</v>
+        <v>56107</v>
       </c>
       <c r="B129" t="str">
-        <v>78597968</v>
+        <v>78626745</v>
       </c>
       <c r="C129" t="str">
-        <v>0</v>
+        <v>854241738038945</v>
       </c>
       <c r="D129" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>56491</v>
+        <v>56107</v>
       </c>
       <c r="B130" t="str">
-        <v>78680964</v>
+        <v>78626785</v>
       </c>
       <c r="C130" t="str">
-        <v>202443289054254</v>
+        <v>640681303529209</v>
       </c>
       <c r="D130" t="str">
-        <v>0x93Cf0a22a26895650A8AaE960Bf85a01ec6A551C</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>56491</v>
+        <v>56107</v>
       </c>
       <c r="B131" t="str">
-        <v>78680987</v>
+        <v>78632902</v>
       </c>
       <c r="C131" t="str">
-        <v>202443289054254</v>
+        <v>640681303529209</v>
       </c>
       <c r="D131" t="str">
-        <v>0x93Cf0a22a26895650A8AaE960Bf85a01ec6A551C</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>56491</v>
+        <v>56107</v>
       </c>
       <c r="B132" t="str">
-        <v>78900356</v>
+        <v>78633028</v>
       </c>
       <c r="C132" t="str">
-        <v>202443289054254</v>
+        <v>831474559678069</v>
       </c>
       <c r="D132" t="str">
-        <v>0x93Cf0a22a26895650A8AaE960Bf85a01ec6A551C</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>56501</v>
+        <v>56107</v>
       </c>
       <c r="B133" t="str">
-        <v>78597968</v>
+        <v>78633058</v>
       </c>
       <c r="C133" t="str">
-        <v>0</v>
+        <v>845532346170894</v>
       </c>
       <c r="D133" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>56501</v>
+        <v>56107</v>
       </c>
       <c r="B134" t="str">
-        <v>78683416</v>
+        <v>78639355</v>
       </c>
       <c r="C134" t="str">
-        <v>872208491894532</v>
+        <v>845532346170894</v>
       </c>
       <c r="D134" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -3219,13 +3311,13 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>56501</v>
+        <v>56107</v>
       </c>
       <c r="B135" t="str">
-        <v>78710278</v>
+        <v>78654777</v>
       </c>
       <c r="C135" t="str">
-        <v>872208491894532</v>
+        <v>845532346170894</v>
       </c>
       <c r="D135" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -3233,13 +3325,13 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>56501</v>
+        <v>56107</v>
       </c>
       <c r="B136" t="str">
-        <v>78712139</v>
+        <v>78682408</v>
       </c>
       <c r="C136" t="str">
-        <v>872208491894532</v>
+        <v>845532346170894</v>
       </c>
       <c r="D136" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -3247,13 +3339,13 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>56501</v>
+        <v>56107</v>
       </c>
       <c r="B137" t="str">
-        <v>78712152</v>
+        <v>78682480</v>
       </c>
       <c r="C137" t="str">
-        <v>872763418898697</v>
+        <v>25365970385127</v>
       </c>
       <c r="D137" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -3261,13 +3353,13 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>56501</v>
+        <v>56107</v>
       </c>
       <c r="B138" t="str">
-        <v>78713771</v>
+        <v>78719357</v>
       </c>
       <c r="C138" t="str">
-        <v>17455268377974</v>
+        <v>40137899836830</v>
       </c>
       <c r="D138" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -3275,13 +3367,13 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>56501</v>
+        <v>56107</v>
       </c>
       <c r="B139" t="str">
-        <v>78719245</v>
+        <v>78719457</v>
       </c>
       <c r="C139" t="str">
-        <v>0</v>
+        <v>52167188313302</v>
       </c>
       <c r="D139" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -3289,13 +3381,13 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>56501</v>
+        <v>56107</v>
       </c>
       <c r="B140" t="str">
-        <v>78732793</v>
+        <v>78720104</v>
       </c>
       <c r="C140" t="str">
-        <v>31646453059422</v>
+        <v>59100501143621</v>
       </c>
       <c r="D140" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -3303,13 +3395,13 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>56501</v>
+        <v>56107</v>
       </c>
       <c r="B141" t="str">
-        <v>78733033</v>
+        <v>78732735</v>
       </c>
       <c r="C141" t="str">
-        <v>63224075344555</v>
+        <v>0</v>
       </c>
       <c r="D141" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -3317,10 +3409,10 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>56501</v>
+        <v>56107</v>
       </c>
       <c r="B142" t="str">
-        <v>78752191</v>
+        <v>78900356</v>
       </c>
       <c r="C142" t="str">
         <v>0</v>
@@ -3331,41 +3423,41 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>56501</v>
+        <v>56150</v>
       </c>
       <c r="B143" t="str">
-        <v>78900356</v>
+        <v>78331507</v>
       </c>
       <c r="C143" t="str">
         <v>0</v>
       </c>
       <c r="D143" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>56666</v>
+        <v>56150</v>
       </c>
       <c r="B144" t="str">
-        <v>78597968</v>
+        <v>78626820</v>
       </c>
       <c r="C144" t="str">
-        <v>0</v>
+        <v>425216877744374</v>
       </c>
       <c r="D144" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>56666</v>
+        <v>56150</v>
       </c>
       <c r="B145" t="str">
-        <v>78713842</v>
+        <v>78626876</v>
       </c>
       <c r="C145" t="str">
-        <v>55472616513634</v>
+        <v>507065080471679</v>
       </c>
       <c r="D145" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -3373,13 +3465,13 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>56666</v>
+        <v>56150</v>
       </c>
       <c r="B146" t="str">
-        <v>78713878</v>
+        <v>78630668</v>
       </c>
       <c r="C146" t="str">
-        <v>137884655471712</v>
+        <v>0</v>
       </c>
       <c r="D146" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -3387,13 +3479,13 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>56666</v>
+        <v>56150</v>
       </c>
       <c r="B147" t="str">
-        <v>78713896</v>
+        <v>78900356</v>
       </c>
       <c r="C147" t="str">
-        <v>222395605257111</v>
+        <v>0</v>
       </c>
       <c r="D147" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -3401,27 +3493,27 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>56666</v>
+        <v>56184</v>
       </c>
       <c r="B148" t="str">
-        <v>78713918</v>
+        <v>78331507</v>
       </c>
       <c r="C148" t="str">
-        <v>309855212088369</v>
+        <v>0</v>
       </c>
       <c r="D148" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>56666</v>
+        <v>56184</v>
       </c>
       <c r="B149" t="str">
-        <v>78713935</v>
+        <v>78630782</v>
       </c>
       <c r="C149" t="str">
-        <v>397268726102624</v>
+        <v>100198498262366</v>
       </c>
       <c r="D149" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -3429,13 +3521,13 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>56666</v>
+        <v>56184</v>
       </c>
       <c r="B150" t="str">
-        <v>78713969</v>
+        <v>78630841</v>
       </c>
       <c r="C150" t="str">
-        <v>489811335789028</v>
+        <v>166295173079457</v>
       </c>
       <c r="D150" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -3443,13 +3535,13 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>56666</v>
+        <v>56184</v>
       </c>
       <c r="B151" t="str">
-        <v>78713994</v>
+        <v>78630899</v>
       </c>
       <c r="C151" t="str">
-        <v>544588508981241</v>
+        <v>178947214767757</v>
       </c>
       <c r="D151" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -3457,13 +3549,13 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>56666</v>
+        <v>56184</v>
       </c>
       <c r="B152" t="str">
-        <v>78714014</v>
+        <v>78630966</v>
       </c>
       <c r="C152" t="str">
-        <v>581101794723120</v>
+        <v>181476478530831</v>
       </c>
       <c r="D152" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -3471,13 +3563,13 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>56666</v>
+        <v>56184</v>
       </c>
       <c r="B153" t="str">
-        <v>78714138</v>
+        <v>78632972</v>
       </c>
       <c r="C153" t="str">
-        <v>672873015012100</v>
+        <v>0</v>
       </c>
       <c r="D153" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -3485,13 +3577,13 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>56666</v>
+        <v>56184</v>
       </c>
       <c r="B154" t="str">
-        <v>78714176</v>
+        <v>78900356</v>
       </c>
       <c r="C154" t="str">
-        <v>768166167347457</v>
+        <v>0</v>
       </c>
       <c r="D154" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
@@ -3499,490 +3591,1232 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>56666</v>
+        <v>56187</v>
       </c>
       <c r="B155" t="str">
-        <v>78714287</v>
+        <v>78331507</v>
       </c>
       <c r="C155" t="str">
-        <v>1054153546918092</v>
+        <v>0</v>
       </c>
       <c r="D155" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>56666</v>
+        <v>56187</v>
       </c>
       <c r="B156" t="str">
-        <v>78716019</v>
+        <v>78630874</v>
       </c>
       <c r="C156" t="str">
-        <v>31624606407543</v>
+        <v>169886967388133</v>
       </c>
       <c r="D156" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>56666</v>
+        <v>56187</v>
       </c>
       <c r="B157" t="str">
-        <v>78719232</v>
+        <v>78630906</v>
       </c>
       <c r="C157" t="str">
-        <v>0</v>
+        <v>169886967388133</v>
       </c>
       <c r="D157" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>56666</v>
+        <v>56187</v>
       </c>
       <c r="B158" t="str">
-        <v>78900356</v>
+        <v>78634972</v>
       </c>
       <c r="C158" t="str">
-        <v>0</v>
+        <v>169886967388133</v>
       </c>
       <c r="D158" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>56865</v>
+        <v>56187</v>
       </c>
       <c r="B159" t="str">
-        <v>78597968</v>
+        <v>78634972</v>
       </c>
       <c r="C159" t="str">
         <v>0</v>
       </c>
       <c r="D159" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>56865</v>
+        <v>56187</v>
       </c>
       <c r="B160" t="str">
-        <v>78752244</v>
+        <v>78900356</v>
       </c>
       <c r="C160" t="str">
-        <v>131730484249521</v>
+        <v>0</v>
       </c>
       <c r="D160" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>56865</v>
+        <v>56205</v>
       </c>
       <c r="B161" t="str">
-        <v>78752274</v>
+        <v>78331507</v>
       </c>
       <c r="C161" t="str">
-        <v>312145202615218</v>
+        <v>0</v>
       </c>
       <c r="D161" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>56865</v>
+        <v>56205</v>
       </c>
       <c r="B162" t="str">
-        <v>78752296</v>
+        <v>78632732</v>
       </c>
       <c r="C162" t="str">
-        <v>338572017675927</v>
+        <v>24608258344881</v>
       </c>
       <c r="D162" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xabF76381Ab5538598AA4cd77d01De16c3F48a54A</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>56865</v>
+        <v>56205</v>
       </c>
       <c r="B163" t="str">
-        <v>78764813</v>
+        <v>78633136</v>
       </c>
       <c r="C163" t="str">
-        <v>0</v>
+        <v>24608258344881</v>
       </c>
       <c r="D163" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xabF76381Ab5538598AA4cd77d01De16c3F48a54A</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>56865</v>
+        <v>56205</v>
       </c>
       <c r="B164" t="str">
-        <v>78807752</v>
+        <v>78900356</v>
       </c>
       <c r="C164" t="str">
-        <v>256799875918048</v>
+        <v>24608258344881</v>
       </c>
       <c r="D164" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xabF76381Ab5538598AA4cd77d01De16c3F48a54A</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>56865</v>
+        <v>56206</v>
       </c>
       <c r="B165" t="str">
-        <v>78807782</v>
+        <v>78331507</v>
       </c>
       <c r="C165" t="str">
-        <v>321141964913264</v>
+        <v>0</v>
       </c>
       <c r="D165" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>56865</v>
+        <v>56206</v>
       </c>
       <c r="B166" t="str">
-        <v>78807819</v>
+        <v>78633068</v>
       </c>
       <c r="C166" t="str">
-        <v>336980964190907</v>
+        <v>415130394425394</v>
       </c>
       <c r="D166" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x93Cf0a22a26895650A8AaE960Bf85a01ec6A551C</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>56865</v>
+        <v>56206</v>
       </c>
       <c r="B167" t="str">
-        <v>78820212</v>
+        <v>78633088</v>
       </c>
       <c r="C167" t="str">
-        <v>336980964190907</v>
+        <v>415130394425394</v>
       </c>
       <c r="D167" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x93Cf0a22a26895650A8AaE960Bf85a01ec6A551C</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>56865</v>
+        <v>56206</v>
       </c>
       <c r="B168" t="str">
-        <v>78841536</v>
+        <v>78676519</v>
       </c>
       <c r="C168" t="str">
-        <v>0</v>
+        <v>415130394425394</v>
       </c>
       <c r="D168" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x93Cf0a22a26895650A8AaE960Bf85a01ec6A551C</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>56865</v>
+        <v>56206</v>
       </c>
       <c r="B169" t="str">
-        <v>78900356</v>
+        <v>78676519</v>
       </c>
       <c r="C169" t="str">
         <v>0</v>
       </c>
       <c r="D169" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x93Cf0a22a26895650A8AaE960Bf85a01ec6A551C</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>56941</v>
+        <v>56206</v>
       </c>
       <c r="B170" t="str">
-        <v>78597968</v>
+        <v>78900356</v>
       </c>
       <c r="C170" t="str">
         <v>0</v>
       </c>
       <c r="D170" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x93Cf0a22a26895650A8AaE960Bf85a01ec6A551C</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>56941</v>
+        <v>56214</v>
       </c>
       <c r="B171" t="str">
-        <v>78765648</v>
+        <v>78331507</v>
       </c>
       <c r="C171" t="str">
-        <v>126591520411675</v>
+        <v>0</v>
       </c>
       <c r="D171" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>56941</v>
+        <v>56214</v>
       </c>
       <c r="B172" t="str">
-        <v>78765716</v>
+        <v>78634991</v>
       </c>
       <c r="C172" t="str">
-        <v>136457814456775</v>
+        <v>152246716182</v>
       </c>
       <c r="D172" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xA2a39b6E6efa860df166D49A1ec095fD6BEdb91f</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>56941</v>
+        <v>56214</v>
       </c>
       <c r="B173" t="str">
-        <v>78800618</v>
+        <v>78723920</v>
       </c>
       <c r="C173" t="str">
-        <v>136457814456775</v>
+        <v>0</v>
       </c>
       <c r="D173" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xA2a39b6E6efa860df166D49A1ec095fD6BEdb91f</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>56941</v>
+        <v>56214</v>
       </c>
       <c r="B174" t="str">
-        <v>78807706</v>
+        <v>78900356</v>
       </c>
       <c r="C174" t="str">
         <v>0</v>
       </c>
       <c r="D174" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xA2a39b6E6efa860df166D49A1ec095fD6BEdb91f</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>56941</v>
+        <v>56217</v>
       </c>
       <c r="B175" t="str">
-        <v>78900356</v>
+        <v>78331507</v>
       </c>
       <c r="C175" t="str">
         <v>0</v>
       </c>
       <c r="D175" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>55850</v>
+        <v>56217</v>
       </c>
       <c r="B176" t="str">
-        <v>78597968</v>
+        <v>78635172</v>
       </c>
       <c r="C176" t="str">
-        <v>0</v>
+        <v>216188104831505</v>
       </c>
       <c r="D176" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>55850</v>
+        <v>56217</v>
       </c>
       <c r="B177" t="str">
-        <v>78801481</v>
+        <v>78635201</v>
       </c>
       <c r="C177" t="str">
-        <v>1422804341952841</v>
+        <v>216188104831505</v>
       </c>
       <c r="D177" t="str">
-        <v>0xD98b537374623B2cFc2f083fcE50b525A697A6b7</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>55850</v>
+        <v>56217</v>
       </c>
       <c r="B178" t="str">
-        <v>78900356</v>
+        <v>78670421</v>
       </c>
       <c r="C178" t="str">
-        <v>1422804341952841</v>
+        <v>216188104831505</v>
       </c>
       <c r="D178" t="str">
-        <v>0xD98b537374623B2cFc2f083fcE50b525A697A6b7</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>57252</v>
+        <v>56217</v>
       </c>
       <c r="B179" t="str">
-        <v>78597968</v>
+        <v>78670421</v>
       </c>
       <c r="C179" t="str">
         <v>0</v>
       </c>
       <c r="D179" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>57252</v>
+        <v>56217</v>
       </c>
       <c r="B180" t="str">
-        <v>78841591</v>
+        <v>78900356</v>
       </c>
       <c r="C180" t="str">
-        <v>41229157069298</v>
+        <v>0</v>
       </c>
       <c r="D180" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>57252</v>
+        <v>56413</v>
       </c>
       <c r="B181" t="str">
-        <v>78841662</v>
+        <v>78331507</v>
       </c>
       <c r="C181" t="str">
-        <v>88171597403429</v>
+        <v>0</v>
       </c>
       <c r="D181" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>57252</v>
+        <v>56413</v>
       </c>
       <c r="B182" t="str">
-        <v>78841685</v>
+        <v>78670657</v>
       </c>
       <c r="C182" t="str">
-        <v>95057461740014</v>
+        <v>51504218144800</v>
       </c>
       <c r="D182" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>57252</v>
+        <v>56413</v>
       </c>
       <c r="B183" t="str">
-        <v>78841755</v>
+        <v>78670684</v>
       </c>
       <c r="C183" t="str">
-        <v>96060624417970</v>
+        <v>51504218144800</v>
       </c>
       <c r="D183" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>57252</v>
+        <v>56413</v>
       </c>
       <c r="B184" t="str">
-        <v>78897386</v>
+        <v>78900356</v>
       </c>
       <c r="C184" t="str">
-        <v>0</v>
+        <v>51504218144800</v>
       </c>
       <c r="D184" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>57252</v>
+        <v>56491</v>
       </c>
       <c r="B185" t="str">
-        <v>78900356</v>
+        <v>78331507</v>
       </c>
       <c r="C185" t="str">
         <v>0</v>
       </c>
       <c r="D185" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x0000000000000000000000000000000000000000</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>57536</v>
+        <v>56491</v>
       </c>
       <c r="B186" t="str">
-        <v>78597968</v>
+        <v>78680964</v>
       </c>
       <c r="C186" t="str">
-        <v>0</v>
+        <v>202443289054254</v>
       </c>
       <c r="D186" t="str">
-        <v>0x0000000000000000000000000000000000000000</v>
+        <v>0x93Cf0a22a26895650A8AaE960Bf85a01ec6A551C</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>57536</v>
+        <v>56491</v>
       </c>
       <c r="B187" t="str">
-        <v>78899352</v>
+        <v>78680987</v>
       </c>
       <c r="C187" t="str">
-        <v>220836176786362</v>
+        <v>202443289054254</v>
       </c>
       <c r="D187" t="str">
-        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+        <v>0x93Cf0a22a26895650A8AaE960Bf85a01ec6A551C</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>57536</v>
+        <v>56491</v>
       </c>
       <c r="B188" t="str">
         <v>78900356</v>
       </c>
       <c r="C188" t="str">
+        <v>202443289054254</v>
+      </c>
+      <c r="D188" t="str">
+        <v>0x93Cf0a22a26895650A8AaE960Bf85a01ec6A551C</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>56501</v>
+      </c>
+      <c r="B189" t="str">
+        <v>78331507</v>
+      </c>
+      <c r="C189" t="str">
+        <v>0</v>
+      </c>
+      <c r="D189" t="str">
+        <v>0x0000000000000000000000000000000000000000</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>56501</v>
+      </c>
+      <c r="B190" t="str">
+        <v>78683416</v>
+      </c>
+      <c r="C190" t="str">
+        <v>872208491894532</v>
+      </c>
+      <c r="D190" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>56501</v>
+      </c>
+      <c r="B191" t="str">
+        <v>78710278</v>
+      </c>
+      <c r="C191" t="str">
+        <v>872208491894532</v>
+      </c>
+      <c r="D191" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>56501</v>
+      </c>
+      <c r="B192" t="str">
+        <v>78712139</v>
+      </c>
+      <c r="C192" t="str">
+        <v>872208491894532</v>
+      </c>
+      <c r="D192" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>56501</v>
+      </c>
+      <c r="B193" t="str">
+        <v>78712152</v>
+      </c>
+      <c r="C193" t="str">
+        <v>872763418898697</v>
+      </c>
+      <c r="D193" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>56501</v>
+      </c>
+      <c r="B194" t="str">
+        <v>78713771</v>
+      </c>
+      <c r="C194" t="str">
+        <v>17455268377974</v>
+      </c>
+      <c r="D194" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>56501</v>
+      </c>
+      <c r="B195" t="str">
+        <v>78719245</v>
+      </c>
+      <c r="C195" t="str">
+        <v>0</v>
+      </c>
+      <c r="D195" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>56501</v>
+      </c>
+      <c r="B196" t="str">
+        <v>78732793</v>
+      </c>
+      <c r="C196" t="str">
+        <v>31646453059422</v>
+      </c>
+      <c r="D196" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>56501</v>
+      </c>
+      <c r="B197" t="str">
+        <v>78733033</v>
+      </c>
+      <c r="C197" t="str">
+        <v>63224075344555</v>
+      </c>
+      <c r="D197" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>56501</v>
+      </c>
+      <c r="B198" t="str">
+        <v>78752191</v>
+      </c>
+      <c r="C198" t="str">
+        <v>0</v>
+      </c>
+      <c r="D198" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>56501</v>
+      </c>
+      <c r="B199" t="str">
+        <v>78900356</v>
+      </c>
+      <c r="C199" t="str">
+        <v>0</v>
+      </c>
+      <c r="D199" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>56666</v>
+      </c>
+      <c r="B200" t="str">
+        <v>78331507</v>
+      </c>
+      <c r="C200" t="str">
+        <v>0</v>
+      </c>
+      <c r="D200" t="str">
+        <v>0x0000000000000000000000000000000000000000</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>56666</v>
+      </c>
+      <c r="B201" t="str">
+        <v>78713842</v>
+      </c>
+      <c r="C201" t="str">
+        <v>55472616513634</v>
+      </c>
+      <c r="D201" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>56666</v>
+      </c>
+      <c r="B202" t="str">
+        <v>78713878</v>
+      </c>
+      <c r="C202" t="str">
+        <v>137884655471712</v>
+      </c>
+      <c r="D202" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>56666</v>
+      </c>
+      <c r="B203" t="str">
+        <v>78713896</v>
+      </c>
+      <c r="C203" t="str">
+        <v>222395605257111</v>
+      </c>
+      <c r="D203" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>56666</v>
+      </c>
+      <c r="B204" t="str">
+        <v>78713918</v>
+      </c>
+      <c r="C204" t="str">
+        <v>309855212088369</v>
+      </c>
+      <c r="D204" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>56666</v>
+      </c>
+      <c r="B205" t="str">
+        <v>78713935</v>
+      </c>
+      <c r="C205" t="str">
+        <v>397268726102624</v>
+      </c>
+      <c r="D205" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>56666</v>
+      </c>
+      <c r="B206" t="str">
+        <v>78713969</v>
+      </c>
+      <c r="C206" t="str">
+        <v>489811335789028</v>
+      </c>
+      <c r="D206" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>56666</v>
+      </c>
+      <c r="B207" t="str">
+        <v>78713994</v>
+      </c>
+      <c r="C207" t="str">
+        <v>544588508981241</v>
+      </c>
+      <c r="D207" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>56666</v>
+      </c>
+      <c r="B208" t="str">
+        <v>78714014</v>
+      </c>
+      <c r="C208" t="str">
+        <v>581101794723120</v>
+      </c>
+      <c r="D208" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>56666</v>
+      </c>
+      <c r="B209" t="str">
+        <v>78714138</v>
+      </c>
+      <c r="C209" t="str">
+        <v>672873015012100</v>
+      </c>
+      <c r="D209" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>56666</v>
+      </c>
+      <c r="B210" t="str">
+        <v>78714176</v>
+      </c>
+      <c r="C210" t="str">
+        <v>768166167347457</v>
+      </c>
+      <c r="D210" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>56666</v>
+      </c>
+      <c r="B211" t="str">
+        <v>78714287</v>
+      </c>
+      <c r="C211" t="str">
+        <v>1054153546918092</v>
+      </c>
+      <c r="D211" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>56666</v>
+      </c>
+      <c r="B212" t="str">
+        <v>78716019</v>
+      </c>
+      <c r="C212" t="str">
+        <v>31624606407543</v>
+      </c>
+      <c r="D212" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>56666</v>
+      </c>
+      <c r="B213" t="str">
+        <v>78719232</v>
+      </c>
+      <c r="C213" t="str">
+        <v>0</v>
+      </c>
+      <c r="D213" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>56666</v>
+      </c>
+      <c r="B214" t="str">
+        <v>78900356</v>
+      </c>
+      <c r="C214" t="str">
+        <v>0</v>
+      </c>
+      <c r="D214" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>56865</v>
+      </c>
+      <c r="B215" t="str">
+        <v>78331507</v>
+      </c>
+      <c r="C215" t="str">
+        <v>0</v>
+      </c>
+      <c r="D215" t="str">
+        <v>0x0000000000000000000000000000000000000000</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>56865</v>
+      </c>
+      <c r="B216" t="str">
+        <v>78752244</v>
+      </c>
+      <c r="C216" t="str">
+        <v>131730484249521</v>
+      </c>
+      <c r="D216" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>56865</v>
+      </c>
+      <c r="B217" t="str">
+        <v>78752274</v>
+      </c>
+      <c r="C217" t="str">
+        <v>312145202615218</v>
+      </c>
+      <c r="D217" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>56865</v>
+      </c>
+      <c r="B218" t="str">
+        <v>78752296</v>
+      </c>
+      <c r="C218" t="str">
+        <v>338572017675927</v>
+      </c>
+      <c r="D218" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>56865</v>
+      </c>
+      <c r="B219" t="str">
+        <v>78764813</v>
+      </c>
+      <c r="C219" t="str">
+        <v>0</v>
+      </c>
+      <c r="D219" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>56865</v>
+      </c>
+      <c r="B220" t="str">
+        <v>78807752</v>
+      </c>
+      <c r="C220" t="str">
+        <v>256799875918048</v>
+      </c>
+      <c r="D220" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>56865</v>
+      </c>
+      <c r="B221" t="str">
+        <v>78807782</v>
+      </c>
+      <c r="C221" t="str">
+        <v>321141964913264</v>
+      </c>
+      <c r="D221" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>56865</v>
+      </c>
+      <c r="B222" t="str">
+        <v>78807819</v>
+      </c>
+      <c r="C222" t="str">
+        <v>336980964190907</v>
+      </c>
+      <c r="D222" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>56865</v>
+      </c>
+      <c r="B223" t="str">
+        <v>78820212</v>
+      </c>
+      <c r="C223" t="str">
+        <v>336980964190907</v>
+      </c>
+      <c r="D223" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>56865</v>
+      </c>
+      <c r="B224" t="str">
+        <v>78841536</v>
+      </c>
+      <c r="C224" t="str">
+        <v>0</v>
+      </c>
+      <c r="D224" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>56865</v>
+      </c>
+      <c r="B225" t="str">
+        <v>78900356</v>
+      </c>
+      <c r="C225" t="str">
+        <v>0</v>
+      </c>
+      <c r="D225" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>56941</v>
+      </c>
+      <c r="B226" t="str">
+        <v>78331507</v>
+      </c>
+      <c r="C226" t="str">
+        <v>0</v>
+      </c>
+      <c r="D226" t="str">
+        <v>0x0000000000000000000000000000000000000000</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>56941</v>
+      </c>
+      <c r="B227" t="str">
+        <v>78765648</v>
+      </c>
+      <c r="C227" t="str">
+        <v>126591520411675</v>
+      </c>
+      <c r="D227" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>56941</v>
+      </c>
+      <c r="B228" t="str">
+        <v>78765716</v>
+      </c>
+      <c r="C228" t="str">
+        <v>136457814456775</v>
+      </c>
+      <c r="D228" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>56941</v>
+      </c>
+      <c r="B229" t="str">
+        <v>78800618</v>
+      </c>
+      <c r="C229" t="str">
+        <v>136457814456775</v>
+      </c>
+      <c r="D229" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>56941</v>
+      </c>
+      <c r="B230" t="str">
+        <v>78807706</v>
+      </c>
+      <c r="C230" t="str">
+        <v>0</v>
+      </c>
+      <c r="D230" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>56941</v>
+      </c>
+      <c r="B231" t="str">
+        <v>78900356</v>
+      </c>
+      <c r="C231" t="str">
+        <v>0</v>
+      </c>
+      <c r="D231" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>57252</v>
+      </c>
+      <c r="B232" t="str">
+        <v>78331507</v>
+      </c>
+      <c r="C232" t="str">
+        <v>0</v>
+      </c>
+      <c r="D232" t="str">
+        <v>0x0000000000000000000000000000000000000000</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>57252</v>
+      </c>
+      <c r="B233" t="str">
+        <v>78841591</v>
+      </c>
+      <c r="C233" t="str">
+        <v>41229157069298</v>
+      </c>
+      <c r="D233" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>57252</v>
+      </c>
+      <c r="B234" t="str">
+        <v>78841662</v>
+      </c>
+      <c r="C234" t="str">
+        <v>88171597403429</v>
+      </c>
+      <c r="D234" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>57252</v>
+      </c>
+      <c r="B235" t="str">
+        <v>78841685</v>
+      </c>
+      <c r="C235" t="str">
+        <v>95057461740014</v>
+      </c>
+      <c r="D235" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>57252</v>
+      </c>
+      <c r="B236" t="str">
+        <v>78841755</v>
+      </c>
+      <c r="C236" t="str">
+        <v>96060624417970</v>
+      </c>
+      <c r="D236" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>57252</v>
+      </c>
+      <c r="B237" t="str">
+        <v>78897386</v>
+      </c>
+      <c r="C237" t="str">
+        <v>0</v>
+      </c>
+      <c r="D237" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>57252</v>
+      </c>
+      <c r="B238" t="str">
+        <v>78900356</v>
+      </c>
+      <c r="C238" t="str">
+        <v>0</v>
+      </c>
+      <c r="D238" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>57536</v>
+      </c>
+      <c r="B239" t="str">
+        <v>78331507</v>
+      </c>
+      <c r="C239" t="str">
+        <v>0</v>
+      </c>
+      <c r="D239" t="str">
+        <v>0x0000000000000000000000000000000000000000</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>57536</v>
+      </c>
+      <c r="B240" t="str">
+        <v>78899352</v>
+      </c>
+      <c r="C240" t="str">
         <v>220836176786362</v>
       </c>
-      <c r="D188" t="str">
+      <c r="D240" t="str">
+        <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>57536</v>
+      </c>
+      <c r="B241" t="str">
+        <v>78900356</v>
+      </c>
+      <c r="C241" t="str">
+        <v>220836176786362</v>
+      </c>
+      <c r="D241" t="str">
         <v>0x2fe6f7c52EccC8Fea03289EC10213033a7c364b7</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D188"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D241"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4006,126 +4840,177 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0x8F1c51E98Af7C7dbB24654ACB05781E0e96e008F</v>
+        <v>0xD98b537374623B2cFc2f083fcE50b525A697A6b7</v>
       </c>
       <c r="B2" t="str">
-        <v>0.003041530442927873</v>
+        <v>0.222457897624203893</v>
       </c>
       <c r="C2" t="str">
-        <v>3004.24</v>
+        <v>208725.56</v>
       </c>
       <c r="D2" t="str">
-        <v>23386.23</v>
+        <v>520414.71</v>
       </c>
       <c r="E2" t="str">
-        <v>595858</v>
+        <v>45590551</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>0x40f81795f44b96BF88E16E055f2283B9cAEd9466</v>
+        <v>0xf31cac93488D5C687C7CbCd58e3ea11609D7dD08</v>
       </c>
       <c r="B3" t="str">
-        <v>0.006568170683976207</v>
+        <v>0.002942232380941114</v>
       </c>
       <c r="C3" t="str">
-        <v>7103.4</v>
+        <v>2899.54</v>
       </c>
       <c r="D3" t="str">
-        <v>52919.17</v>
+        <v>0</v>
       </c>
       <c r="E3" t="str">
-        <v>1348328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>0xBa2ACC7b677dd133F8B6e5cEde8ea7Fd9C1c6795</v>
+        <v>0x248784Af80094fe92F915674b2f4409366443562</v>
       </c>
       <c r="B4" t="str">
-        <v>0.013476499366237812</v>
+        <v>0.004057452157449011</v>
       </c>
       <c r="C4" t="str">
-        <v>15307.63</v>
+        <v>3998.26</v>
       </c>
       <c r="D4" t="str">
-        <v>111455.68</v>
+        <v>9710.28</v>
       </c>
       <c r="E4" t="str">
-        <v>2839780</v>
+        <v>850662</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>0xabF76381Ab5538598AA4cd77d01De16c3F48a54A</v>
+        <v>0x0AB4F882E219A33fcE9252b6213aD1146d4354d9</v>
       </c>
       <c r="B5" t="str">
-        <v>0.002147848508804599</v>
+        <v>0.001836895649363853</v>
       </c>
       <c r="C5" t="str">
-        <v>2737.11</v>
+        <v>2305.93</v>
       </c>
       <c r="D5" t="str">
-        <v>18930.8</v>
+        <v>4962.04</v>
       </c>
       <c r="E5" t="str">
-        <v>482338</v>
+        <v>434696</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+        <v>0x8F1c51E98Af7C7dbB24654ACB05781E0e96e008F</v>
       </c>
       <c r="B6" t="str">
-        <v>0.004117956710943026</v>
+        <v>0.003041530442927873</v>
       </c>
       <c r="C6" t="str">
-        <v>4849.25</v>
+        <v>3004.24</v>
       </c>
       <c r="D6" t="str">
-        <v>34731.18</v>
+        <v>7287.06</v>
       </c>
       <c r="E6" t="str">
-        <v>884916</v>
+        <v>638378</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>0x93Cf0a22a26895650A8AaE960Bf85a01ec6A551C</v>
+        <v>0x40f81795f44b96BF88E16E055f2283B9cAEd9466</v>
       </c>
       <c r="B7" t="str">
-        <v>0.014960838497561057</v>
+        <v>0.006568170683976207</v>
       </c>
       <c r="C7" t="str">
-        <v>16807.34</v>
+        <v>7103.4</v>
       </c>
       <c r="D7" t="str">
-        <v>123000.48</v>
+        <v>16439.26</v>
       </c>
       <c r="E7" t="str">
-        <v>3133930</v>
+        <v>1440150</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>0xD98b537374623B2cFc2f083fcE50b525A697A6b7</v>
+        <v>0xBa2ACC7b677dd133F8B6e5cEde8ea7Fd9C1c6795</v>
       </c>
       <c r="B8" t="str">
-        <v>0.031455655337217222</v>
+        <v>0.013476499366237812</v>
       </c>
       <c r="C8" t="str">
-        <v>41736.27</v>
+        <v>15307.63</v>
       </c>
       <c r="D8" t="str">
-        <v>283724.57</v>
+        <v>34566.56</v>
       </c>
       <c r="E8" t="str">
-        <v>7229020</v>
+        <v>3028179</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>0xabF76381Ab5538598AA4cd77d01De16c3F48a54A</v>
+      </c>
+      <c r="B9" t="str">
+        <v>0.002147848508804599</v>
+      </c>
+      <c r="C9" t="str">
+        <v>2737.11</v>
+      </c>
+      <c r="D9" t="str">
+        <v>5848.63</v>
+      </c>
+      <c r="E9" t="str">
+        <v>512365</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>0xa614A83132a2e7368aDa71dA9331817c33706770</v>
+      </c>
+      <c r="B10" t="str">
+        <v>0.004117956710943026</v>
+      </c>
+      <c r="C10" t="str">
+        <v>4849.25</v>
+      </c>
+      <c r="D10" t="str">
+        <v>10758.42</v>
+      </c>
+      <c r="E10" t="str">
+        <v>942484</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>0x93Cf0a22a26895650A8AaE960Bf85a01ec6A551C</v>
+      </c>
+      <c r="B11" t="str">
+        <v>0.014960838497561057</v>
+      </c>
+      <c r="C11" t="str">
+        <v>16807.34</v>
+      </c>
+      <c r="D11" t="str">
+        <v>38161.14</v>
+      </c>
+      <c r="E11" t="str">
+        <v>3343079</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E11"/>
   </ignoredErrors>
 </worksheet>
 </file>